--- a/source/Datos de referencia.xlsx
+++ b/source/Datos de referencia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7dfca358b064f129/Documents/Cecar 9/Ciencias de la computacion - Trabajos/Proyecto - corte 1/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{776EAAA6-2E8E-41A2-9BBF-9C71D07A3B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{776EAAA6-2E8E-41A2-9BBF-9C71D07A3B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF6E51F0-06C7-4776-AC4D-6FFAE48A78D7}"/>
   <bookViews>
-    <workbookView xWindow="4428" yWindow="3900" windowWidth="17280" windowHeight="10500" xr2:uid="{F044E375-63BA-4FC7-A07D-9311BA1A49B2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{F044E375-63BA-4FC7-A07D-9311BA1A49B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -97,6 +97,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -419,7 +423,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A7" sqref="A7:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/source/Datos de referencia.xlsx
+++ b/source/Datos de referencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7dfca358b064f129/Documents/Cecar 9/Ciencias de la computacion - Trabajos/Proyecto - corte 1/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{776EAAA6-2E8E-41A2-9BBF-9C71D07A3B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF6E51F0-06C7-4776-AC4D-6FFAE48A78D7}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{776EAAA6-2E8E-41A2-9BBF-9C71D07A3B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D415B64C-9867-4ACB-A6F7-FE139EFF69A0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{F044E375-63BA-4FC7-A07D-9311BA1A49B2}"/>
   </bookViews>
@@ -38,13 +38,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Pacientes atentidos</t>
-  </si>
-  <si>
     <t>Dia</t>
   </si>
   <si>
     <t>Tiempo de espera (min)</t>
+  </si>
+  <si>
+    <t>Pacientes atendidos</t>
   </si>
 </sst>
 </file>
@@ -423,7 +423,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:C21"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -434,13 +434,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
